--- a/classfiers/chatty/svm/smote/chatty-svm-linear-results.xlsx
+++ b/classfiers/chatty/svm/smote/chatty-svm-linear-results.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9308943089430894</v>
+        <v>0.9914163090128756</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9642105263157895</v>
+        <v>0.9956896551724138</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9906588190620848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9829059829059829</v>
+        <v>0.9871244635193133</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9913793103448275</v>
+        <v>0.9935205183585313</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9992595405354092</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9827600583698144</v>
+        <v>0.9957081545064378</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9911179673321234</v>
+        <v>0.997842034706189</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9979836719194989</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chatty/svm/smote/chatty-svm-linear-results.xlsx
+++ b/classfiers/chatty/svm/smote/chatty-svm-linear-results.xlsx
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9495412844036697</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9956896551724138</v>
+        <v>0.9741176470588235</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9541284403669725</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9935205183585313</v>
+        <v>0.9765258215962441</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9999419360832404</v>
       </c>
     </row>
     <row r="5">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9904306220095693</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9957081545064378</v>
+        <v>0.9788200693560423</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.997842034706189</v>
+        <v>0.9891671552694751</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9999883872166482</v>
       </c>
     </row>
   </sheetData>
